--- a/_Inputs/PDF_2.xlsx
+++ b/_Inputs/PDF_2.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - CGIAR\Documents\GitHub\XX_tool\_Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8774DD-3368-412D-BCFD-24CCFA2B8A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706685A7-19B2-49B8-9B77-E86127D4D41F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{94FB2C2B-2216-4DEF-B118-A1AAE5B94C87}"/>
   </bookViews>
   <sheets>
-    <sheet name="MacArthur Foundation" sheetId="2" r:id="rId1"/>
+    <sheet name="Mc Arthur Foundation" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -419,7 +419,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
